--- a/Результат.xlsx
+++ b/Результат.xlsx
@@ -415,6 +415,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
